--- a/Code/Results/Cases/Case_2_255/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_255/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018467784052669</v>
+        <v>1.040678082160796</v>
       </c>
       <c r="D2">
-        <v>1.036230583574017</v>
+        <v>1.048405537223276</v>
       </c>
       <c r="E2">
-        <v>1.030195023781869</v>
+        <v>1.054924486636589</v>
       </c>
       <c r="F2">
-        <v>1.039901063905084</v>
+        <v>1.06109912910135</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054893334869206</v>
+        <v>1.043560072786564</v>
       </c>
       <c r="J2">
-        <v>1.040109816534261</v>
+        <v>1.045763392179102</v>
       </c>
       <c r="K2">
-        <v>1.047207230292033</v>
+        <v>1.051165473218208</v>
       </c>
       <c r="L2">
-        <v>1.041249130617967</v>
+        <v>1.057666357619507</v>
       </c>
       <c r="M2">
-        <v>1.050831152586917</v>
+        <v>1.063824110846303</v>
       </c>
       <c r="N2">
-        <v>1.041586891776003</v>
+        <v>1.047248496146734</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.022471960738176</v>
+        <v>1.041518597462012</v>
       </c>
       <c r="D3">
-        <v>1.039307089778614</v>
+        <v>1.049074876947421</v>
       </c>
       <c r="E3">
-        <v>1.034034100407699</v>
+        <v>1.055820316700731</v>
       </c>
       <c r="F3">
-        <v>1.04371024017022</v>
+        <v>1.061969849354246</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056235165100998</v>
+        <v>1.043781141583781</v>
       </c>
       <c r="J3">
-        <v>1.042368215226813</v>
+        <v>1.046250167615262</v>
       </c>
       <c r="K3">
-        <v>1.049460568297854</v>
+        <v>1.051647221153132</v>
       </c>
       <c r="L3">
-        <v>1.04424926850376</v>
+        <v>1.058375316630267</v>
       </c>
       <c r="M3">
-        <v>1.053812795333175</v>
+        <v>1.064509244167361</v>
       </c>
       <c r="N3">
-        <v>1.04384849765374</v>
+        <v>1.047735962859848</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.025013099615144</v>
+        <v>1.042062869592612</v>
       </c>
       <c r="D4">
-        <v>1.041262117234259</v>
+        <v>1.049508332350636</v>
       </c>
       <c r="E4">
-        <v>1.03648008503334</v>
+        <v>1.056401285435298</v>
       </c>
       <c r="F4">
-        <v>1.046134599204776</v>
+        <v>1.062534254114536</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057076535705117</v>
+        <v>1.043923036678041</v>
       </c>
       <c r="J4">
-        <v>1.043797910111808</v>
+        <v>1.046564874501037</v>
       </c>
       <c r="K4">
-        <v>1.050886799863234</v>
+        <v>1.051958609090521</v>
       </c>
       <c r="L4">
-        <v>1.046157295149051</v>
+        <v>1.058834729077725</v>
       </c>
       <c r="M4">
-        <v>1.055706366550524</v>
+        <v>1.064952917871863</v>
       </c>
       <c r="N4">
-        <v>1.04528022286946</v>
+        <v>1.048051116665497</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026069835744515</v>
+        <v>1.042291776450875</v>
       </c>
       <c r="D5">
-        <v>1.042075705342643</v>
+        <v>1.049690638600843</v>
       </c>
       <c r="E5">
-        <v>1.037499536822042</v>
+        <v>1.056645835768056</v>
       </c>
       <c r="F5">
-        <v>1.047144418286569</v>
+        <v>1.062771765210076</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057423941382243</v>
+        <v>1.043982413009736</v>
       </c>
       <c r="J5">
-        <v>1.044391575326203</v>
+        <v>1.046697111606839</v>
       </c>
       <c r="K5">
-        <v>1.051478958587026</v>
+        <v>1.052089435093248</v>
       </c>
       <c r="L5">
-        <v>1.046951701617406</v>
+        <v>1.059028024633009</v>
       </c>
       <c r="M5">
-        <v>1.056494105594374</v>
+        <v>1.065139519761261</v>
       </c>
       <c r="N5">
-        <v>1.045874731156554</v>
+        <v>1.048183541563158</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026246599066561</v>
+        <v>1.042330216438047</v>
       </c>
       <c r="D6">
-        <v>1.042211830003466</v>
+        <v>1.049721253358664</v>
       </c>
       <c r="E6">
-        <v>1.037670197199952</v>
+        <v>1.056686915035278</v>
       </c>
       <c r="F6">
-        <v>1.047313429659411</v>
+        <v>1.062811658115873</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057481906158249</v>
+        <v>1.04399236632861</v>
       </c>
       <c r="J6">
-        <v>1.044490827190759</v>
+        <v>1.046719310913582</v>
       </c>
       <c r="K6">
-        <v>1.051577954393769</v>
+        <v>1.0521113965403</v>
       </c>
       <c r="L6">
-        <v>1.047084639448526</v>
+        <v>1.059060489062086</v>
       </c>
       <c r="M6">
-        <v>1.056625889461283</v>
+        <v>1.065170855772477</v>
       </c>
       <c r="N6">
-        <v>1.045974123970142</v>
+        <v>1.048205772395463</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.025027264712581</v>
+        <v>1.042065927886431</v>
       </c>
       <c r="D7">
-        <v>1.04127302076712</v>
+        <v>1.049510768017155</v>
       </c>
       <c r="E7">
-        <v>1.036493741352294</v>
+        <v>1.056404551908713</v>
       </c>
       <c r="F7">
-        <v>1.046148128932821</v>
+        <v>1.062537426826976</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057081202369395</v>
+        <v>1.043923831154377</v>
       </c>
       <c r="J7">
-        <v>1.043805871433817</v>
+        <v>1.046566641719232</v>
       </c>
       <c r="K7">
-        <v>1.050894741260704</v>
+        <v>1.051960357515715</v>
       </c>
       <c r="L7">
-        <v>1.046167940107468</v>
+        <v>1.058837311281225</v>
       </c>
       <c r="M7">
-        <v>1.0557169247315</v>
+        <v>1.064955410937251</v>
       </c>
       <c r="N7">
-        <v>1.04528819549746</v>
+        <v>1.048052886393345</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.019831560934088</v>
+        <v>1.040962053987035</v>
       </c>
       <c r="D8">
-        <v>1.037277835861306</v>
+        <v>1.048631670686389</v>
       </c>
       <c r="E8">
-        <v>1.031500538922817</v>
+        <v>1.055226964959448</v>
       </c>
       <c r="F8">
-        <v>1.041196948328681</v>
+        <v>1.061393186907888</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055352458861542</v>
+        <v>1.043635021924158</v>
       </c>
       <c r="J8">
-        <v>1.040879725174338</v>
+        <v>1.045927955281886</v>
       </c>
       <c r="K8">
-        <v>1.047975464416875</v>
+        <v>1.051328350845638</v>
       </c>
       <c r="L8">
-        <v>1.042270073521097</v>
+        <v>1.057905814309049</v>
       </c>
       <c r="M8">
-        <v>1.051846363367644</v>
+        <v>1.064055582173175</v>
       </c>
       <c r="N8">
-        <v>1.042357893774659</v>
+        <v>1.047413292948</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010276885748793</v>
+        <v>1.039020036834261</v>
       </c>
       <c r="D9">
-        <v>1.029953440125494</v>
+        <v>1.047085326957207</v>
       </c>
       <c r="E9">
-        <v>1.022395815302084</v>
+        <v>1.053161992944773</v>
       </c>
       <c r="F9">
-        <v>1.032148622841836</v>
+        <v>1.059384555928722</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052094174885702</v>
+        <v>1.043117320229542</v>
       </c>
       <c r="J9">
-        <v>1.035471888047732</v>
+        <v>1.044800497291591</v>
       </c>
       <c r="K9">
-        <v>1.042578542655521</v>
+        <v>1.050212162016438</v>
       </c>
       <c r="L9">
-        <v>1.035135693397109</v>
+        <v>1.056269584019701</v>
       </c>
       <c r="M9">
-        <v>1.044740788560489</v>
+        <v>1.062472690935532</v>
       </c>
       <c r="N9">
-        <v>1.036942376899046</v>
+        <v>1.046284233838037</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003612816668904</v>
+        <v>1.037727565982495</v>
       </c>
       <c r="D10">
-        <v>1.024862938136175</v>
+        <v>1.046056371737986</v>
       </c>
       <c r="E10">
-        <v>1.016099865091993</v>
+        <v>1.051792232048076</v>
       </c>
       <c r="F10">
-        <v>1.025878089633252</v>
+        <v>1.058050729991408</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049770383169987</v>
+        <v>1.042766326131914</v>
       </c>
       <c r="J10">
-        <v>1.03168382380395</v>
+        <v>1.044047576731498</v>
       </c>
       <c r="K10">
-        <v>1.03879734056849</v>
+        <v>1.049466420707327</v>
       </c>
       <c r="L10">
-        <v>1.030184391181616</v>
+        <v>1.055182339745087</v>
       </c>
       <c r="M10">
-        <v>1.039795314982811</v>
+        <v>1.061419350700095</v>
       </c>
       <c r="N10">
-        <v>1.03314893316954</v>
+        <v>1.045530244044388</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000651194526596</v>
+        <v>1.037168454086313</v>
       </c>
       <c r="D11">
-        <v>1.022605553197188</v>
+        <v>1.045611304038756</v>
       </c>
       <c r="E11">
-        <v>1.013315164889291</v>
+        <v>1.051200766199533</v>
       </c>
       <c r="F11">
-        <v>1.023101425769353</v>
+        <v>1.057474439134542</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04872602680701</v>
+        <v>1.04261296151086</v>
       </c>
       <c r="J11">
-        <v>1.029996908115304</v>
+        <v>1.04372126447029</v>
       </c>
       <c r="K11">
-        <v>1.037113392521359</v>
+        <v>1.049143138810554</v>
       </c>
       <c r="L11">
-        <v>1.027990270652283</v>
+        <v>1.054712417841726</v>
       </c>
       <c r="M11">
-        <v>1.037600448101073</v>
+        <v>1.060963717311364</v>
       </c>
       <c r="N11">
-        <v>1.031459621867124</v>
+        <v>1.04520346838234</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9995391263957962</v>
+        <v>1.036960857124901</v>
       </c>
       <c r="D12">
-        <v>1.021758717269603</v>
+        <v>1.045446059386706</v>
       </c>
       <c r="E12">
-        <v>1.012271572266906</v>
+        <v>1.050981319086591</v>
       </c>
       <c r="F12">
-        <v>1.022060364439418</v>
+        <v>1.057260570858467</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048332178225027</v>
+        <v>1.042555788196706</v>
       </c>
       <c r="J12">
-        <v>1.029363004035817</v>
+        <v>1.043600014763423</v>
       </c>
       <c r="K12">
-        <v>1.036480599004005</v>
+        <v>1.049023003016136</v>
       </c>
       <c r="L12">
-        <v>1.027167385149158</v>
+        <v>1.054537998941925</v>
       </c>
       <c r="M12">
-        <v>1.036776784847966</v>
+        <v>1.060794546904589</v>
       </c>
       <c r="N12">
-        <v>1.030824817571135</v>
+        <v>1.045082046486982</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9997782208314763</v>
+        <v>1.037005383639133</v>
       </c>
       <c r="D13">
-        <v>1.021940749912376</v>
+        <v>1.045481501581062</v>
       </c>
       <c r="E13">
-        <v>1.012495851501298</v>
+        <v>1.051028379911753</v>
       </c>
       <c r="F13">
-        <v>1.022284121367015</v>
+        <v>1.057306437620772</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0484169316592</v>
+        <v>1.04256806141581</v>
       </c>
       <c r="J13">
-        <v>1.029499314331999</v>
+        <v>1.043626025155332</v>
       </c>
       <c r="K13">
-        <v>1.036616670558252</v>
+        <v>1.049048774998466</v>
       </c>
       <c r="L13">
-        <v>1.027344259891953</v>
+        <v>1.054575406434961</v>
       </c>
       <c r="M13">
-        <v>1.03695384922663</v>
+        <v>1.060830831242976</v>
       </c>
       <c r="N13">
-        <v>1.030961321443572</v>
+        <v>1.045108093816631</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.00055951861532</v>
+        <v>1.037151292373479</v>
       </c>
       <c r="D14">
-        <v>1.022535725791876</v>
+        <v>1.045597643359046</v>
       </c>
       <c r="E14">
-        <v>1.013229092142838</v>
+        <v>1.051182621529789</v>
       </c>
       <c r="F14">
-        <v>1.023015571563582</v>
+        <v>1.057456756792788</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04869359328101</v>
+        <v>1.04260823976256</v>
       </c>
       <c r="J14">
-        <v>1.029944660287675</v>
+        <v>1.043711242798121</v>
       </c>
       <c r="K14">
-        <v>1.037061236271395</v>
+        <v>1.049133209453042</v>
       </c>
       <c r="L14">
-        <v>1.027922413779707</v>
+        <v>1.054697997639608</v>
       </c>
       <c r="M14">
-        <v>1.037532537205861</v>
+        <v>1.060949732152696</v>
       </c>
       <c r="N14">
-        <v>1.031407299841588</v>
+        <v>1.045193432478248</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.00103929566778</v>
+        <v>1.03724120248271</v>
       </c>
       <c r="D15">
-        <v>1.022901193601401</v>
+        <v>1.045669211906148</v>
       </c>
       <c r="E15">
-        <v>1.013679629107386</v>
+        <v>1.051277688014491</v>
       </c>
       <c r="F15">
-        <v>1.023464945007688</v>
+        <v>1.057549398866609</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04886326197088</v>
+        <v>1.042632967578652</v>
       </c>
       <c r="J15">
-        <v>1.030218074947704</v>
+        <v>1.04376374256342</v>
       </c>
       <c r="K15">
-        <v>1.037334171566845</v>
+        <v>1.049185225121791</v>
       </c>
       <c r="L15">
-        <v>1.028277576857703</v>
+        <v>1.05477354753309</v>
       </c>
       <c r="M15">
-        <v>1.037887962743009</v>
+        <v>1.061023000529774</v>
       </c>
       <c r="N15">
-        <v>1.031681102781795</v>
+        <v>1.045246006799235</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003807720248123</v>
+        <v>1.037764683828159</v>
       </c>
       <c r="D16">
-        <v>1.025011603378436</v>
+        <v>1.046085919603158</v>
       </c>
       <c r="E16">
-        <v>1.01628340669699</v>
+        <v>1.051831520598165</v>
       </c>
       <c r="F16">
-        <v>1.02606103469443</v>
+        <v>1.058089003316053</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049838873474484</v>
+        <v>1.042776475385942</v>
       </c>
       <c r="J16">
-        <v>1.031794770725088</v>
+        <v>1.044069226934756</v>
       </c>
       <c r="K16">
-        <v>1.038908091194136</v>
+        <v>1.049487868151056</v>
       </c>
       <c r="L16">
-        <v>1.030328920933812</v>
+        <v>1.055213545204956</v>
       </c>
       <c r="M16">
-        <v>1.039939824599466</v>
+        <v>1.061449599617684</v>
       </c>
       <c r="N16">
-        <v>1.033260037648032</v>
+        <v>1.045551924993417</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.005523533983349</v>
+        <v>1.038093194533921</v>
       </c>
       <c r="D17">
-        <v>1.026320929800765</v>
+        <v>1.046347438151651</v>
       </c>
       <c r="E17">
-        <v>1.01790071941508</v>
+        <v>1.052179368073657</v>
       </c>
       <c r="F17">
-        <v>1.027672724821844</v>
+        <v>1.058427822778089</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050440501722589</v>
+        <v>1.042866124603185</v>
       </c>
       <c r="J17">
-        <v>1.032771093322889</v>
+        <v>1.044260771674087</v>
       </c>
       <c r="K17">
-        <v>1.039882677385815</v>
+        <v>1.049677609673823</v>
       </c>
       <c r="L17">
-        <v>1.03160199884109</v>
+        <v>1.05548977597619</v>
       </c>
       <c r="M17">
-        <v>1.041212345503042</v>
+        <v>1.061717320833421</v>
       </c>
       <c r="N17">
-        <v>1.034237746735907</v>
+        <v>1.045743741748248</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00651704276701</v>
+        <v>1.038284860936406</v>
       </c>
       <c r="D18">
-        <v>1.027079533279067</v>
+        <v>1.046500023377989</v>
       </c>
       <c r="E18">
-        <v>1.018838456028557</v>
+        <v>1.052382420668677</v>
       </c>
       <c r="F18">
-        <v>1.028606895923251</v>
+        <v>1.058625572329136</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050787755429738</v>
+        <v>1.042918282095403</v>
       </c>
       <c r="J18">
-        <v>1.033336084970959</v>
+        <v>1.04437246816107</v>
       </c>
       <c r="K18">
-        <v>1.040446655227145</v>
+        <v>1.049788246816154</v>
       </c>
       <c r="L18">
-        <v>1.03233974751609</v>
+        <v>1.055650979785111</v>
       </c>
       <c r="M18">
-        <v>1.041949454423106</v>
+        <v>1.061873523323712</v>
       </c>
       <c r="N18">
-        <v>1.034803540736924</v>
+        <v>1.045855596857055</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006854582622845</v>
+        <v>1.038350222944773</v>
       </c>
       <c r="D19">
-        <v>1.027337342103415</v>
+        <v>1.046552058727898</v>
       </c>
       <c r="E19">
-        <v>1.01915726060719</v>
+        <v>1.052451683278859</v>
       </c>
       <c r="F19">
-        <v>1.028924436473201</v>
+        <v>1.058693020435257</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050905543994012</v>
+        <v>1.042936043806309</v>
       </c>
       <c r="J19">
-        <v>1.033527981268783</v>
+        <v>1.044410548937703</v>
       </c>
       <c r="K19">
-        <v>1.040638205419224</v>
+        <v>1.04982596509957</v>
       </c>
       <c r="L19">
-        <v>1.032590494242728</v>
+        <v>1.05570596016297</v>
       </c>
       <c r="M19">
-        <v>1.042199929870951</v>
+        <v>1.061926791962426</v>
       </c>
       <c r="N19">
-        <v>1.034995709549501</v>
+        <v>1.045893731712759</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.005340202082632</v>
+        <v>1.038057943089413</v>
       </c>
       <c r="D20">
-        <v>1.026180981948361</v>
+        <v>1.046319374928444</v>
       </c>
       <c r="E20">
-        <v>1.017727780903867</v>
+        <v>1.052142030867524</v>
       </c>
       <c r="F20">
-        <v>1.027500419191625</v>
+        <v>1.058391458035455</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050376333277328</v>
+        <v>1.042856519881299</v>
       </c>
       <c r="J20">
-        <v>1.032666808718532</v>
+        <v>1.044240223657016</v>
       </c>
       <c r="K20">
-        <v>1.039778579122519</v>
+        <v>1.049657255906221</v>
       </c>
       <c r="L20">
-        <v>1.031465910272978</v>
+        <v>1.055460130425102</v>
       </c>
       <c r="M20">
-        <v>1.041076349328243</v>
+        <v>1.061688592190811</v>
       </c>
       <c r="N20">
-        <v>1.034133314035451</v>
+        <v>1.045723164550637</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.000329781594281</v>
+        <v>1.037108323609821</v>
       </c>
       <c r="D21">
-        <v>1.022360753482935</v>
+        <v>1.045563440462969</v>
       </c>
       <c r="E21">
-        <v>1.013013429534718</v>
+        <v>1.051137194311986</v>
       </c>
       <c r="F21">
-        <v>1.022800448787802</v>
+        <v>1.057412486233797</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048612288627</v>
+        <v>1.042596413945378</v>
       </c>
       <c r="J21">
-        <v>1.029813721243009</v>
+        <v>1.043686149498521</v>
       </c>
       <c r="K21">
-        <v>1.036930526686659</v>
+        <v>1.049108347105312</v>
       </c>
       <c r="L21">
-        <v>1.027752382655366</v>
+        <v>1.054661893956495</v>
       </c>
       <c r="M21">
-        <v>1.037362362699511</v>
+        <v>1.060914716795162</v>
       </c>
       <c r="N21">
-        <v>1.031276174848459</v>
+        <v>1.045168303543284</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9971098553756221</v>
+        <v>1.036511735845398</v>
       </c>
       <c r="D22">
-        <v>1.019910364613938</v>
+        <v>1.045088579434233</v>
       </c>
       <c r="E22">
-        <v>1.009995685022988</v>
+        <v>1.050506858906994</v>
       </c>
       <c r="F22">
-        <v>1.01978911653406</v>
+        <v>1.056798078446814</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047468758275337</v>
+        <v>1.042431678530056</v>
       </c>
       <c r="J22">
-        <v>1.027977425907853</v>
+        <v>1.043337534012247</v>
       </c>
       <c r="K22">
-        <v>1.035097449704205</v>
+        <v>1.048762911624089</v>
       </c>
       <c r="L22">
-        <v>1.025371692541714</v>
+        <v>1.054160769784984</v>
       </c>
       <c r="M22">
-        <v>1.034978483003009</v>
+        <v>1.060428568643917</v>
       </c>
       <c r="N22">
-        <v>1.029437271763301</v>
+        <v>1.044819192983032</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9988236021388665</v>
+        <v>1.036827952719895</v>
       </c>
       <c r="D23">
-        <v>1.021214079775261</v>
+        <v>1.045340271404224</v>
       </c>
       <c r="E23">
-        <v>1.011600687202766</v>
+        <v>1.050840874041588</v>
       </c>
       <c r="F23">
-        <v>1.021390971449573</v>
+        <v>1.057123681756243</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048078295980039</v>
+        <v>1.042519121055333</v>
       </c>
       <c r="J23">
-        <v>1.028955008721623</v>
+        <v>1.043522364706541</v>
       </c>
       <c r="K23">
-        <v>1.036073318286073</v>
+        <v>1.048946062929764</v>
       </c>
       <c r="L23">
-        <v>1.026638210787817</v>
+        <v>1.054426352763277</v>
       </c>
       <c r="M23">
-        <v>1.036246970363327</v>
+        <v>1.060686244843437</v>
       </c>
       <c r="N23">
-        <v>1.030416242856797</v>
+        <v>1.045004286158113</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.005423064384053</v>
+        <v>1.038073871540329</v>
       </c>
       <c r="D24">
-        <v>1.026244234107831</v>
+        <v>1.046332055349484</v>
       </c>
       <c r="E24">
-        <v>1.01780594169217</v>
+        <v>1.052158901452603</v>
       </c>
       <c r="F24">
-        <v>1.027578294891324</v>
+        <v>1.058407889320945</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050405339549924</v>
+        <v>1.042860860253889</v>
       </c>
       <c r="J24">
-        <v>1.032713944267885</v>
+        <v>1.044249508509085</v>
       </c>
       <c r="K24">
-        <v>1.039825630476097</v>
+        <v>1.049666453008681</v>
       </c>
       <c r="L24">
-        <v>1.031527417697038</v>
+        <v>1.055473525717058</v>
       </c>
       <c r="M24">
-        <v>1.041137815976057</v>
+        <v>1.061701573288209</v>
       </c>
       <c r="N24">
-        <v>1.03418051652269</v>
+        <v>1.04573246258826</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.012796877271982</v>
+        <v>1.039521712341908</v>
       </c>
       <c r="D25">
-        <v>1.031882301621583</v>
+        <v>1.047484759122531</v>
       </c>
       <c r="E25">
-        <v>1.024787902452282</v>
+        <v>1.053694631529228</v>
       </c>
       <c r="F25">
-        <v>1.034528251856124</v>
+        <v>1.059902915681178</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052962544188534</v>
+        <v>1.043252194664611</v>
       </c>
       <c r="J25">
-        <v>1.036901119126523</v>
+        <v>1.045092203283938</v>
       </c>
       <c r="K25">
-        <v>1.04400505494359</v>
+        <v>1.050501013710363</v>
       </c>
       <c r="L25">
-        <v>1.037013229670289</v>
+        <v>1.056691965000601</v>
       </c>
       <c r="M25">
-        <v>1.046613204612985</v>
+        <v>1.062881574370362</v>
       </c>
       <c r="N25">
-        <v>1.038373637649903</v>
+        <v>1.046576354086352</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_255/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_255/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040678082160796</v>
+        <v>1.018467784052668</v>
       </c>
       <c r="D2">
-        <v>1.048405537223276</v>
+        <v>1.036230583574017</v>
       </c>
       <c r="E2">
-        <v>1.054924486636589</v>
+        <v>1.030195023781869</v>
       </c>
       <c r="F2">
-        <v>1.06109912910135</v>
+        <v>1.039901063905084</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043560072786564</v>
+        <v>1.054893334869206</v>
       </c>
       <c r="J2">
-        <v>1.045763392179102</v>
+        <v>1.040109816534261</v>
       </c>
       <c r="K2">
-        <v>1.051165473218208</v>
+        <v>1.047207230292033</v>
       </c>
       <c r="L2">
-        <v>1.057666357619507</v>
+        <v>1.041249130617967</v>
       </c>
       <c r="M2">
-        <v>1.063824110846303</v>
+        <v>1.050831152586917</v>
       </c>
       <c r="N2">
-        <v>1.047248496146734</v>
+        <v>1.041586891776003</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041518597462012</v>
+        <v>1.022471960738176</v>
       </c>
       <c r="D3">
-        <v>1.049074876947421</v>
+        <v>1.039307089778614</v>
       </c>
       <c r="E3">
-        <v>1.055820316700731</v>
+        <v>1.0340341004077</v>
       </c>
       <c r="F3">
-        <v>1.061969849354246</v>
+        <v>1.04371024017022</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043781141583781</v>
+        <v>1.056235165100999</v>
       </c>
       <c r="J3">
-        <v>1.046250167615262</v>
+        <v>1.042368215226812</v>
       </c>
       <c r="K3">
-        <v>1.051647221153132</v>
+        <v>1.049460568297854</v>
       </c>
       <c r="L3">
-        <v>1.058375316630267</v>
+        <v>1.04424926850376</v>
       </c>
       <c r="M3">
-        <v>1.064509244167361</v>
+        <v>1.053812795333175</v>
       </c>
       <c r="N3">
-        <v>1.047735962859848</v>
+        <v>1.04384849765374</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042062869592612</v>
+        <v>1.025013099615145</v>
       </c>
       <c r="D4">
-        <v>1.049508332350636</v>
+        <v>1.041262117234261</v>
       </c>
       <c r="E4">
-        <v>1.056401285435298</v>
+        <v>1.036480085033341</v>
       </c>
       <c r="F4">
-        <v>1.062534254114536</v>
+        <v>1.046134599204777</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043923036678041</v>
+        <v>1.057076535705117</v>
       </c>
       <c r="J4">
-        <v>1.046564874501037</v>
+        <v>1.043797910111808</v>
       </c>
       <c r="K4">
-        <v>1.051958609090521</v>
+        <v>1.050886799863235</v>
       </c>
       <c r="L4">
-        <v>1.058834729077725</v>
+        <v>1.046157295149052</v>
       </c>
       <c r="M4">
-        <v>1.064952917871863</v>
+        <v>1.055706366550526</v>
       </c>
       <c r="N4">
-        <v>1.048051116665497</v>
+        <v>1.04528022286946</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042291776450875</v>
+        <v>1.026069835744515</v>
       </c>
       <c r="D5">
-        <v>1.049690638600843</v>
+        <v>1.042075705342642</v>
       </c>
       <c r="E5">
-        <v>1.056645835768056</v>
+        <v>1.037499536822041</v>
       </c>
       <c r="F5">
-        <v>1.062771765210076</v>
+        <v>1.047144418286568</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043982413009736</v>
+        <v>1.057423941382243</v>
       </c>
       <c r="J5">
-        <v>1.046697111606839</v>
+        <v>1.044391575326202</v>
       </c>
       <c r="K5">
-        <v>1.052089435093248</v>
+        <v>1.051478958587025</v>
       </c>
       <c r="L5">
-        <v>1.059028024633009</v>
+        <v>1.046951701617406</v>
       </c>
       <c r="M5">
-        <v>1.065139519761261</v>
+        <v>1.056494105594373</v>
       </c>
       <c r="N5">
-        <v>1.048183541563158</v>
+        <v>1.045874731156553</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042330216438047</v>
+        <v>1.026246599066561</v>
       </c>
       <c r="D6">
-        <v>1.049721253358664</v>
+        <v>1.042211830003466</v>
       </c>
       <c r="E6">
-        <v>1.056686915035278</v>
+        <v>1.037670197199952</v>
       </c>
       <c r="F6">
-        <v>1.062811658115873</v>
+        <v>1.047313429659411</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04399236632861</v>
+        <v>1.057481906158249</v>
       </c>
       <c r="J6">
-        <v>1.046719310913582</v>
+        <v>1.044490827190759</v>
       </c>
       <c r="K6">
-        <v>1.0521113965403</v>
+        <v>1.051577954393769</v>
       </c>
       <c r="L6">
-        <v>1.059060489062086</v>
+        <v>1.047084639448526</v>
       </c>
       <c r="M6">
-        <v>1.065170855772477</v>
+        <v>1.056625889461283</v>
       </c>
       <c r="N6">
-        <v>1.048205772395463</v>
+        <v>1.045974123970143</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042065927886431</v>
+        <v>1.025027264712582</v>
       </c>
       <c r="D7">
-        <v>1.049510768017155</v>
+        <v>1.041273020767121</v>
       </c>
       <c r="E7">
-        <v>1.056404551908713</v>
+        <v>1.036493741352296</v>
       </c>
       <c r="F7">
-        <v>1.062537426826976</v>
+        <v>1.046148128932822</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043923831154377</v>
+        <v>1.057081202369395</v>
       </c>
       <c r="J7">
-        <v>1.046566641719232</v>
+        <v>1.043805871433817</v>
       </c>
       <c r="K7">
-        <v>1.051960357515715</v>
+        <v>1.050894741260705</v>
       </c>
       <c r="L7">
-        <v>1.058837311281225</v>
+        <v>1.046167940107469</v>
       </c>
       <c r="M7">
-        <v>1.064955410937251</v>
+        <v>1.055716924731501</v>
       </c>
       <c r="N7">
-        <v>1.048052886393345</v>
+        <v>1.045288195497461</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040962053987035</v>
+        <v>1.019831560934088</v>
       </c>
       <c r="D8">
-        <v>1.048631670686389</v>
+        <v>1.037277835861306</v>
       </c>
       <c r="E8">
-        <v>1.055226964959448</v>
+        <v>1.031500538922817</v>
       </c>
       <c r="F8">
-        <v>1.061393186907888</v>
+        <v>1.041196948328681</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043635021924158</v>
+        <v>1.055352458861542</v>
       </c>
       <c r="J8">
-        <v>1.045927955281886</v>
+        <v>1.040879725174339</v>
       </c>
       <c r="K8">
-        <v>1.051328350845638</v>
+        <v>1.047975464416875</v>
       </c>
       <c r="L8">
-        <v>1.057905814309049</v>
+        <v>1.042270073521098</v>
       </c>
       <c r="M8">
-        <v>1.064055582173175</v>
+        <v>1.051846363367644</v>
       </c>
       <c r="N8">
-        <v>1.047413292948</v>
+        <v>1.04235789377466</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039020036834261</v>
+        <v>1.010276885748793</v>
       </c>
       <c r="D9">
-        <v>1.047085326957207</v>
+        <v>1.029953440125494</v>
       </c>
       <c r="E9">
-        <v>1.053161992944773</v>
+        <v>1.022395815302084</v>
       </c>
       <c r="F9">
-        <v>1.059384555928722</v>
+        <v>1.032148622841836</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043117320229542</v>
+        <v>1.052094174885702</v>
       </c>
       <c r="J9">
-        <v>1.044800497291591</v>
+        <v>1.035471888047732</v>
       </c>
       <c r="K9">
-        <v>1.050212162016438</v>
+        <v>1.042578542655521</v>
       </c>
       <c r="L9">
-        <v>1.056269584019701</v>
+        <v>1.03513569339711</v>
       </c>
       <c r="M9">
-        <v>1.062472690935532</v>
+        <v>1.044740788560489</v>
       </c>
       <c r="N9">
-        <v>1.046284233838037</v>
+        <v>1.036942376899046</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037727565982495</v>
+        <v>1.003612816668904</v>
       </c>
       <c r="D10">
-        <v>1.046056371737986</v>
+        <v>1.024862938136174</v>
       </c>
       <c r="E10">
-        <v>1.051792232048076</v>
+        <v>1.016099865091993</v>
       </c>
       <c r="F10">
-        <v>1.058050729991408</v>
+        <v>1.025878089633252</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042766326131914</v>
+        <v>1.049770383169987</v>
       </c>
       <c r="J10">
-        <v>1.044047576731498</v>
+        <v>1.031683823803949</v>
       </c>
       <c r="K10">
-        <v>1.049466420707327</v>
+        <v>1.03879734056849</v>
       </c>
       <c r="L10">
-        <v>1.055182339745087</v>
+        <v>1.030184391181616</v>
       </c>
       <c r="M10">
-        <v>1.061419350700095</v>
+        <v>1.039795314982811</v>
       </c>
       <c r="N10">
-        <v>1.045530244044388</v>
+        <v>1.03314893316954</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037168454086313</v>
+        <v>1.000651194526595</v>
       </c>
       <c r="D11">
-        <v>1.045611304038756</v>
+        <v>1.022605553197188</v>
       </c>
       <c r="E11">
-        <v>1.051200766199533</v>
+        <v>1.013315164889291</v>
       </c>
       <c r="F11">
-        <v>1.057474439134542</v>
+        <v>1.023101425769352</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04261296151086</v>
+        <v>1.04872602680701</v>
       </c>
       <c r="J11">
-        <v>1.04372126447029</v>
+        <v>1.029996908115303</v>
       </c>
       <c r="K11">
-        <v>1.049143138810554</v>
+        <v>1.037113392521358</v>
       </c>
       <c r="L11">
-        <v>1.054712417841726</v>
+        <v>1.027990270652282</v>
       </c>
       <c r="M11">
-        <v>1.060963717311364</v>
+        <v>1.037600448101072</v>
       </c>
       <c r="N11">
-        <v>1.04520346838234</v>
+        <v>1.031459621867124</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036960857124901</v>
+        <v>0.9995391263957952</v>
       </c>
       <c r="D12">
-        <v>1.045446059386706</v>
+        <v>1.021758717269603</v>
       </c>
       <c r="E12">
-        <v>1.050981319086591</v>
+        <v>1.012271572266905</v>
       </c>
       <c r="F12">
-        <v>1.057260570858467</v>
+        <v>1.022060364439417</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042555788196706</v>
+        <v>1.048332178225027</v>
       </c>
       <c r="J12">
-        <v>1.043600014763423</v>
+        <v>1.029363004035816</v>
       </c>
       <c r="K12">
-        <v>1.049023003016136</v>
+        <v>1.036480599004004</v>
       </c>
       <c r="L12">
-        <v>1.054537998941925</v>
+        <v>1.027167385149158</v>
       </c>
       <c r="M12">
-        <v>1.060794546904589</v>
+        <v>1.036776784847966</v>
       </c>
       <c r="N12">
-        <v>1.045082046486982</v>
+        <v>1.030824817571134</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037005383639133</v>
+        <v>0.999778220831477</v>
       </c>
       <c r="D13">
-        <v>1.045481501581062</v>
+        <v>1.021940749912376</v>
       </c>
       <c r="E13">
-        <v>1.051028379911753</v>
+        <v>1.012495851501299</v>
       </c>
       <c r="F13">
-        <v>1.057306437620772</v>
+        <v>1.022284121367016</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04256806141581</v>
+        <v>1.0484169316592</v>
       </c>
       <c r="J13">
-        <v>1.043626025155332</v>
+        <v>1.029499314332</v>
       </c>
       <c r="K13">
-        <v>1.049048774998466</v>
+        <v>1.036616670558252</v>
       </c>
       <c r="L13">
-        <v>1.054575406434961</v>
+        <v>1.027344259891953</v>
       </c>
       <c r="M13">
-        <v>1.060830831242976</v>
+        <v>1.03695384922663</v>
       </c>
       <c r="N13">
-        <v>1.045108093816631</v>
+        <v>1.030961321443573</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037151292373479</v>
+        <v>1.000559518615321</v>
       </c>
       <c r="D14">
-        <v>1.045597643359046</v>
+        <v>1.022535725791877</v>
       </c>
       <c r="E14">
-        <v>1.051182621529789</v>
+        <v>1.013229092142839</v>
       </c>
       <c r="F14">
-        <v>1.057456756792788</v>
+        <v>1.023015571563584</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04260823976256</v>
+        <v>1.048693593281011</v>
       </c>
       <c r="J14">
-        <v>1.043711242798121</v>
+        <v>1.029944660287676</v>
       </c>
       <c r="K14">
-        <v>1.049133209453042</v>
+        <v>1.037061236271396</v>
       </c>
       <c r="L14">
-        <v>1.054697997639608</v>
+        <v>1.027922413779708</v>
       </c>
       <c r="M14">
-        <v>1.060949732152696</v>
+        <v>1.037532537205863</v>
       </c>
       <c r="N14">
-        <v>1.045193432478248</v>
+        <v>1.031407299841589</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03724120248271</v>
+        <v>1.00103929566778</v>
       </c>
       <c r="D15">
-        <v>1.045669211906148</v>
+        <v>1.022901193601401</v>
       </c>
       <c r="E15">
-        <v>1.051277688014491</v>
+        <v>1.013679629107386</v>
       </c>
       <c r="F15">
-        <v>1.057549398866609</v>
+        <v>1.023464945007688</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042632967578652</v>
+        <v>1.04886326197088</v>
       </c>
       <c r="J15">
-        <v>1.04376374256342</v>
+        <v>1.030218074947703</v>
       </c>
       <c r="K15">
-        <v>1.049185225121791</v>
+        <v>1.037334171566844</v>
       </c>
       <c r="L15">
-        <v>1.05477354753309</v>
+        <v>1.028277576857703</v>
       </c>
       <c r="M15">
-        <v>1.061023000529774</v>
+        <v>1.037887962743008</v>
       </c>
       <c r="N15">
-        <v>1.045246006799235</v>
+        <v>1.031681102781794</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037764683828159</v>
+        <v>1.003807720248123</v>
       </c>
       <c r="D16">
-        <v>1.046085919603158</v>
+        <v>1.025011603378436</v>
       </c>
       <c r="E16">
-        <v>1.051831520598165</v>
+        <v>1.01628340669699</v>
       </c>
       <c r="F16">
-        <v>1.058089003316053</v>
+        <v>1.02606103469443</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042776475385942</v>
+        <v>1.049838873474483</v>
       </c>
       <c r="J16">
-        <v>1.044069226934756</v>
+        <v>1.031794770725087</v>
       </c>
       <c r="K16">
-        <v>1.049487868151056</v>
+        <v>1.038908091194135</v>
       </c>
       <c r="L16">
-        <v>1.055213545204956</v>
+        <v>1.030328920933812</v>
       </c>
       <c r="M16">
-        <v>1.061449599617684</v>
+        <v>1.039939824599466</v>
       </c>
       <c r="N16">
-        <v>1.045551924993417</v>
+        <v>1.033260037648032</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038093194533921</v>
+        <v>1.005523533983349</v>
       </c>
       <c r="D17">
-        <v>1.046347438151651</v>
+        <v>1.026320929800765</v>
       </c>
       <c r="E17">
-        <v>1.052179368073657</v>
+        <v>1.01790071941508</v>
       </c>
       <c r="F17">
-        <v>1.058427822778089</v>
+        <v>1.027672724821844</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042866124603185</v>
+        <v>1.050440501722589</v>
       </c>
       <c r="J17">
-        <v>1.044260771674087</v>
+        <v>1.032771093322889</v>
       </c>
       <c r="K17">
-        <v>1.049677609673823</v>
+        <v>1.039882677385815</v>
       </c>
       <c r="L17">
-        <v>1.05548977597619</v>
+        <v>1.03160199884109</v>
       </c>
       <c r="M17">
-        <v>1.061717320833421</v>
+        <v>1.041212345503042</v>
       </c>
       <c r="N17">
-        <v>1.045743741748248</v>
+        <v>1.034237746735907</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038284860936406</v>
+        <v>1.00651704276701</v>
       </c>
       <c r="D18">
-        <v>1.046500023377989</v>
+        <v>1.027079533279067</v>
       </c>
       <c r="E18">
-        <v>1.052382420668677</v>
+        <v>1.018838456028558</v>
       </c>
       <c r="F18">
-        <v>1.058625572329136</v>
+        <v>1.028606895923251</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042918282095403</v>
+        <v>1.050787755429739</v>
       </c>
       <c r="J18">
-        <v>1.04437246816107</v>
+        <v>1.03333608497096</v>
       </c>
       <c r="K18">
-        <v>1.049788246816154</v>
+        <v>1.040446655227145</v>
       </c>
       <c r="L18">
-        <v>1.055650979785111</v>
+        <v>1.03233974751609</v>
       </c>
       <c r="M18">
-        <v>1.061873523323712</v>
+        <v>1.041949454423107</v>
       </c>
       <c r="N18">
-        <v>1.045855596857055</v>
+        <v>1.034803540736924</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038350222944773</v>
+        <v>1.006854582622845</v>
       </c>
       <c r="D19">
-        <v>1.046552058727898</v>
+        <v>1.027337342103415</v>
       </c>
       <c r="E19">
-        <v>1.052451683278859</v>
+        <v>1.01915726060719</v>
       </c>
       <c r="F19">
-        <v>1.058693020435257</v>
+        <v>1.028924436473201</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042936043806309</v>
+        <v>1.050905543994012</v>
       </c>
       <c r="J19">
-        <v>1.044410548937703</v>
+        <v>1.033527981268783</v>
       </c>
       <c r="K19">
-        <v>1.04982596509957</v>
+        <v>1.040638205419225</v>
       </c>
       <c r="L19">
-        <v>1.05570596016297</v>
+        <v>1.032590494242729</v>
       </c>
       <c r="M19">
-        <v>1.061926791962426</v>
+        <v>1.042199929870951</v>
       </c>
       <c r="N19">
-        <v>1.045893731712759</v>
+        <v>1.034995709549501</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038057943089413</v>
+        <v>1.005340202082632</v>
       </c>
       <c r="D20">
-        <v>1.046319374928444</v>
+        <v>1.026180981948361</v>
       </c>
       <c r="E20">
-        <v>1.052142030867524</v>
+        <v>1.017727780903867</v>
       </c>
       <c r="F20">
-        <v>1.058391458035455</v>
+        <v>1.027500419191625</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042856519881299</v>
+        <v>1.050376333277329</v>
       </c>
       <c r="J20">
-        <v>1.044240223657016</v>
+        <v>1.032666808718533</v>
       </c>
       <c r="K20">
-        <v>1.049657255906221</v>
+        <v>1.039778579122519</v>
       </c>
       <c r="L20">
-        <v>1.055460130425102</v>
+        <v>1.031465910272979</v>
       </c>
       <c r="M20">
-        <v>1.061688592190811</v>
+        <v>1.041076349328244</v>
       </c>
       <c r="N20">
-        <v>1.045723164550637</v>
+        <v>1.034133314035451</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037108323609821</v>
+        <v>1.00032978159428</v>
       </c>
       <c r="D21">
-        <v>1.045563440462969</v>
+        <v>1.022360753482935</v>
       </c>
       <c r="E21">
-        <v>1.051137194311986</v>
+        <v>1.013013429534718</v>
       </c>
       <c r="F21">
-        <v>1.057412486233797</v>
+        <v>1.022800448787802</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042596413945378</v>
+        <v>1.048612288627</v>
       </c>
       <c r="J21">
-        <v>1.043686149498521</v>
+        <v>1.029813721243009</v>
       </c>
       <c r="K21">
-        <v>1.049108347105312</v>
+        <v>1.036930526686659</v>
       </c>
       <c r="L21">
-        <v>1.054661893956495</v>
+        <v>1.027752382655366</v>
       </c>
       <c r="M21">
-        <v>1.060914716795162</v>
+        <v>1.03736236269951</v>
       </c>
       <c r="N21">
-        <v>1.045168303543284</v>
+        <v>1.031276174848459</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036511735845398</v>
+        <v>0.9971098553756219</v>
       </c>
       <c r="D22">
-        <v>1.045088579434233</v>
+        <v>1.019910364613938</v>
       </c>
       <c r="E22">
-        <v>1.050506858906994</v>
+        <v>1.009995685022988</v>
       </c>
       <c r="F22">
-        <v>1.056798078446814</v>
+        <v>1.019789116534059</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042431678530056</v>
+        <v>1.047468758275337</v>
       </c>
       <c r="J22">
-        <v>1.043337534012247</v>
+        <v>1.027977425907853</v>
       </c>
       <c r="K22">
-        <v>1.048762911624089</v>
+        <v>1.035097449704205</v>
       </c>
       <c r="L22">
-        <v>1.054160769784984</v>
+        <v>1.025371692541714</v>
       </c>
       <c r="M22">
-        <v>1.060428568643917</v>
+        <v>1.034978483003009</v>
       </c>
       <c r="N22">
-        <v>1.044819192983032</v>
+        <v>1.0294372717633</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036827952719895</v>
+        <v>0.9988236021388668</v>
       </c>
       <c r="D23">
-        <v>1.045340271404224</v>
+        <v>1.021214079775262</v>
       </c>
       <c r="E23">
-        <v>1.050840874041588</v>
+        <v>1.011600687202767</v>
       </c>
       <c r="F23">
-        <v>1.057123681756243</v>
+        <v>1.021390971449573</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042519121055333</v>
+        <v>1.04807829598004</v>
       </c>
       <c r="J23">
-        <v>1.043522364706541</v>
+        <v>1.028955008721623</v>
       </c>
       <c r="K23">
-        <v>1.048946062929764</v>
+        <v>1.036073318286073</v>
       </c>
       <c r="L23">
-        <v>1.054426352763277</v>
+        <v>1.026638210787817</v>
       </c>
       <c r="M23">
-        <v>1.060686244843437</v>
+        <v>1.036246970363328</v>
       </c>
       <c r="N23">
-        <v>1.045004286158113</v>
+        <v>1.030416242856797</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038073871540329</v>
+        <v>1.005423064384052</v>
       </c>
       <c r="D24">
-        <v>1.046332055349484</v>
+        <v>1.02624423410783</v>
       </c>
       <c r="E24">
-        <v>1.052158901452603</v>
+        <v>1.017805941692169</v>
       </c>
       <c r="F24">
-        <v>1.058407889320945</v>
+        <v>1.027578294891323</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042860860253889</v>
+        <v>1.050405339549924</v>
       </c>
       <c r="J24">
-        <v>1.044249508509085</v>
+        <v>1.032713944267885</v>
       </c>
       <c r="K24">
-        <v>1.049666453008681</v>
+        <v>1.039825630476096</v>
       </c>
       <c r="L24">
-        <v>1.055473525717058</v>
+        <v>1.031527417697037</v>
       </c>
       <c r="M24">
-        <v>1.061701573288209</v>
+        <v>1.041137815976056</v>
       </c>
       <c r="N24">
-        <v>1.04573246258826</v>
+        <v>1.03418051652269</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039521712341908</v>
+        <v>1.012796877271981</v>
       </c>
       <c r="D25">
-        <v>1.047484759122531</v>
+        <v>1.031882301621583</v>
       </c>
       <c r="E25">
-        <v>1.053694631529228</v>
+        <v>1.024787902452282</v>
       </c>
       <c r="F25">
-        <v>1.059902915681178</v>
+        <v>1.034528251856123</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043252194664611</v>
+        <v>1.052962544188534</v>
       </c>
       <c r="J25">
-        <v>1.045092203283938</v>
+        <v>1.036901119126523</v>
       </c>
       <c r="K25">
-        <v>1.050501013710363</v>
+        <v>1.044005054943589</v>
       </c>
       <c r="L25">
-        <v>1.056691965000601</v>
+        <v>1.037013229670289</v>
       </c>
       <c r="M25">
-        <v>1.062881574370362</v>
+        <v>1.046613204612985</v>
       </c>
       <c r="N25">
-        <v>1.046576354086352</v>
+        <v>1.038373637649903</v>
       </c>
     </row>
   </sheetData>
